--- a/output5_demos_correlation_table.xlsx
+++ b/output5_demos_correlation_table.xlsx
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000124-19-6_group1</t>
+          <t>000615-74-7_group1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.098</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.029</v>
+        <v>0.132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>-0.045</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -484,17 +484,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1000401-12-0_group1</t>
+          <t>1000309-13-0_group1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.121</v>
+        <v>-0.034</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.137</v>
+        <v>-0.026</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.106</v>
+        <v>-0.09</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -505,17 +505,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000615-74-7_group1</t>
+          <t>054446-78-5_group1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.132</v>
+        <v>0.055</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.045</v>
+        <v>-0.044</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -526,17 +526,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>000098-86-2_group2</t>
+          <t>000124-19-6_group1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.105</v>
+        <v>0.098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.081</v>
+        <v>0.029</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1000309-13-0_group1</t>
+          <t>1000401-12-0_group1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.034</v>
+        <v>0.121</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.026</v>
+        <v>-0.137</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09</v>
+        <v>-0.106</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>054446-78-5_group1</t>
+          <t>000620-14-4_group1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.048</v>
+        <v>0.103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.055</v>
+        <v>0.046</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.044</v>
+        <v>-0.038</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -589,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000620-14-4_group1</t>
+          <t>000098-86-2_group2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.103</v>
+        <v>0.105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.046</v>
+        <v>0.081</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.038</v>
+        <v>-0.001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
